--- a/savingTaxProject/web/board_uploadFiles/ff.xlsx
+++ b/savingTaxProject/web/board_uploadFiles/ff.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="10305" windowWidth="19440" xWindow="-1605" yWindow="-120"/>
+    <workbookView activeTab="2" windowHeight="10305" windowWidth="19440" xWindow="-1605" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="부가세" r:id="rId1" sheetId="15"/>
     <sheet name="부가세 " r:id="rId2" sheetId="16"/>
     <sheet name="매입처별세금계산서합계표(갑) " r:id="rId3" sheetId="17"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="321">
   <si>
     <t>■ 부가가치세법 시행규칙 [별지 제21호 서식] &lt;개정 2015.3.6&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1312,6 +1312,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">  년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제  기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(    월   일  ~    월    일 )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1319,15 +1327,15 @@
     <t>2017년</t>
   </si>
   <si>
+    <t>일반고깃집</t>
+  </si>
+  <si>
+    <t>서울시 강남구 역삼동 135-34</t>
+  </si>
+  <si>
     <t>2200000</t>
   </si>
   <si>
-    <t>일반고깃집</t>
-  </si>
-  <si>
-    <t>서울시 강남구 역삼동 135-34</t>
-  </si>
-  <si>
     <t>220000</t>
   </si>
   <si>
@@ -1362,6 +1370,12 @@
   </si>
   <si>
     <t>6755926</t>
+  </si>
+  <si>
+    <t>보건</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>123-81-12345</t>
@@ -2224,7 +2238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="265">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2609,6 +2623,57 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="41" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="2" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="48" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2618,70 +2683,16 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="5" fillId="0" fontId="2" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="39" fillId="0" fontId="20" numFmtId="0" xfId="0">
@@ -3395,8 +3406,8 @@
   </sheetPr>
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AC54" sqref="AC54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3420,25 +3431,25 @@
       </c>
     </row>
     <row ht="17.25" r="2" spans="1:27">
-      <c r="J2" s="134" t="s">
+      <c r="J2" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
       <c r="M2" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row ht="17.25" r="3" spans="1:27">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="149" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
       <c r="J3" s="2" t="s">
         <v>296</v>
       </c>
@@ -3464,54 +3475,56 @@
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
-      <c r="N7" s="136"/>
-      <c r="O7" s="136"/>
-      <c r="P7" s="136" t="s">
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="136"/>
-      <c r="S7" s="136"/>
-      <c r="T7" s="136"/>
-      <c r="U7" s="136"/>
-      <c r="V7" s="136"/>
-      <c r="W7" s="136"/>
-      <c r="X7" s="147" t="s">
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="139"/>
+      <c r="V7" s="139"/>
+      <c r="W7" s="139"/>
+      <c r="X7" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="Y7" s="147"/>
-      <c r="Z7" s="147"/>
-      <c r="AA7" s="147"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
     </row>
     <row customHeight="1" ht="16.5" r="8" spans="1:27">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="100"/>
+      <c r="B8" s="100" t="s">
+        <v>299</v>
+      </c>
       <c r="C8" s="100"/>
-      <c r="D8" s="148" t="s">
-        <v>301</v>
+      <c r="D8" s="100" t="s">
+        <v>302</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
       <c r="G8" s="100"/>
       <c r="H8" s="83" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I8" s="83"/>
       <c r="J8" s="83"/>
@@ -3521,28 +3534,28 @@
       <c r="N8" s="83"/>
     </row>
     <row customHeight="1" ht="27" r="9" spans="1:27">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="149" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="149" t="s">
+      <c r="C9" s="141" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="149"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="142"/>
       <c r="O9" s="6" t="s">
         <v>59</v>
       </c>
@@ -3565,19 +3578,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="125"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-      <c r="L10" s="128" t="s">
+      <c r="D10" s="143"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="145" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="129"/>
-      <c r="N10" s="130"/>
+      <c r="M10" s="146"/>
+      <c r="N10" s="147"/>
       <c r="O10" s="17" t="s">
         <v>61</v>
       </c>
@@ -3602,20 +3615,18 @@
       <c r="A11" s="81"/>
       <c r="B11" s="125"/>
       <c r="C11" s="125"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="137"/>
-      <c r="M11" s="137"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="3" t="s">
-        <v>302</v>
-      </c>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="99"/>
       <c r="Q11" s="99"/>
       <c r="R11" s="99"/>
@@ -3631,70 +3642,70 @@
     </row>
     <row customHeight="1" ht="27" r="12" spans="1:27">
       <c r="A12" s="85"/>
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="139"/>
-      <c r="D12" s="140" t="s">
-        <v>303</v>
-      </c>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="142" t="s">
+      <c r="C12" s="131"/>
+      <c r="D12" s="132" t="s">
+        <v>304</v>
+      </c>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="146"/>
-      <c r="T12" s="146"/>
-      <c r="U12" s="146"/>
-      <c r="V12" s="146"/>
-      <c r="W12" s="146"/>
-      <c r="X12" s="146"/>
-      <c r="Y12" s="146"/>
-      <c r="Z12" s="146"/>
-      <c r="AA12" s="146"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="138"/>
+      <c r="X12" s="138"/>
+      <c r="Y12" s="138"/>
+      <c r="Z12" s="138"/>
+      <c r="AA12" s="138"/>
     </row>
     <row customHeight="1" ht="2.25" r="13" spans="1:27"/>
     <row r="14" spans="1:27">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="133"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="129"/>
+      <c r="P14" s="129"/>
+      <c r="Q14" s="129"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="129"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="129"/>
+      <c r="W14" s="129"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="129"/>
+      <c r="Z14" s="129"/>
+      <c r="AA14" s="130"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="81" t="s">
@@ -3755,7 +3766,7 @@
         <v>41</v>
       </c>
       <c r="M16" s="99" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="N16" s="99"/>
       <c r="O16" s="99"/>
@@ -3765,7 +3776,7 @@
       <c r="Q16" s="99"/>
       <c r="R16" s="99"/>
       <c r="S16" s="99" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T16" s="99"/>
       <c r="U16" s="99"/>
@@ -3822,16 +3833,14 @@
       <c r="F18" s="112"/>
       <c r="G18" s="112"/>
       <c r="H18" s="112"/>
-      <c r="I18" s="112" t="s">
-        <v>306</v>
-      </c>
+      <c r="I18" s="112"/>
       <c r="J18" s="112"/>
       <c r="K18" s="112"/>
       <c r="L18" s="18" t="s">
         <v>43</v>
       </c>
       <c r="M18" s="99" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N18" s="99"/>
       <c r="O18" s="99"/>
@@ -3840,7 +3849,9 @@
       </c>
       <c r="Q18" s="99"/>
       <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
+      <c r="S18" s="99" t="s">
+        <v>308</v>
+      </c>
       <c r="T18" s="99"/>
       <c r="U18" s="99"/>
       <c r="V18" s="99"/>
@@ -3868,7 +3879,7 @@
         <v>44</v>
       </c>
       <c r="M19" s="99" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N19" s="99"/>
       <c r="O19" s="99"/>
@@ -3876,7 +3887,7 @@
       <c r="Q19" s="99"/>
       <c r="R19" s="99"/>
       <c r="S19" s="99" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="T19" s="99"/>
       <c r="U19" s="99"/>
@@ -4043,7 +4054,7 @@
         <v>49</v>
       </c>
       <c r="M24" s="99" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N24" s="99"/>
       <c r="O24" s="99"/>
@@ -4053,7 +4064,7 @@
       <c r="Q24" s="99"/>
       <c r="R24" s="99"/>
       <c r="S24" s="99" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="T24" s="99"/>
       <c r="U24" s="99"/>
@@ -4086,7 +4097,7 @@
         <v>50</v>
       </c>
       <c r="M25" s="126" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N25" s="126"/>
       <c r="O25" s="126"/>
@@ -4094,7 +4105,7 @@
       <c r="Q25" s="99"/>
       <c r="R25" s="99"/>
       <c r="S25" s="126" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="T25" s="126"/>
       <c r="U25" s="126"/>
@@ -4222,7 +4233,7 @@
         <v>54</v>
       </c>
       <c r="M29" s="99" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N29" s="99"/>
       <c r="O29" s="99"/>
@@ -4230,7 +4241,7 @@
       <c r="Q29" s="99"/>
       <c r="R29" s="99"/>
       <c r="S29" s="99" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="T29" s="99"/>
       <c r="U29" s="99"/>
@@ -4443,7 +4454,7 @@
         <v>87</v>
       </c>
       <c r="M35" s="99" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N35" s="99"/>
       <c r="O35" s="99"/>
@@ -4451,7 +4462,7 @@
       <c r="Q35" s="99"/>
       <c r="R35" s="99"/>
       <c r="S35" s="99" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="T35" s="99"/>
       <c r="U35" s="99"/>
@@ -4480,7 +4491,7 @@
         <v>88</v>
       </c>
       <c r="M36" s="99" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N36" s="99"/>
       <c r="O36" s="99"/>
@@ -4490,7 +4501,7 @@
       <c r="Q36" s="99"/>
       <c r="R36" s="99"/>
       <c r="S36" s="99" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="T36" s="99"/>
       <c r="U36" s="99"/>
@@ -4734,7 +4745,7 @@
       <c r="Q43" s="99"/>
       <c r="R43" s="99"/>
       <c r="S43" s="99" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="T43" s="99"/>
       <c r="U43" s="99"/>
@@ -4925,9 +4936,11 @@
     </row>
     <row customHeight="1" ht="18" r="52" spans="1:27" thickBot="1">
       <c r="A52" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="3"/>
+        <v>318</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>319</v>
+      </c>
       <c r="C52" s="80"/>
       <c r="D52" s="81"/>
       <c r="E52" s="3"/>
@@ -5419,7 +5432,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
@@ -5448,199 +5461,199 @@
       <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="162" t="s">
         <v>169</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="222" t="s">
+      <c r="B6" s="205"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="221" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="212" t="s">
+      <c r="E6" s="211" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="213"/>
-      <c r="G6" s="213"/>
-      <c r="H6" s="214"/>
-      <c r="I6" s="201" t="s">
+      <c r="F6" s="212"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="200" t="s">
         <v>172</v>
       </c>
-      <c r="J6" s="202"/>
+      <c r="J6" s="201"/>
       <c r="K6" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="L6" s="181" t="s">
+      <c r="L6" s="180" t="s">
         <v>174</v>
       </c>
-      <c r="M6" s="203"/>
+      <c r="M6" s="202"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="208"/>
-      <c r="B7" s="208"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="223"/>
-      <c r="E7" s="222" t="s">
+      <c r="A7" s="207"/>
+      <c r="B7" s="207"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="221" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="215" t="s">
+      <c r="F7" s="214" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="217"/>
+      <c r="G7" s="216"/>
       <c r="H7" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="I7" s="156"/>
-      <c r="J7" s="205"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="204"/>
       <c r="K7" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="L7" s="156"/>
-      <c r="M7" s="157"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="156"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="208"/>
-      <c r="B8" s="208"/>
-      <c r="C8" s="209"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="215" t="s">
+      <c r="A8" s="207"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="214" t="s">
         <v>179</v>
       </c>
-      <c r="G8" s="217"/>
+      <c r="G8" s="216"/>
       <c r="H8" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="I8" s="156"/>
-      <c r="J8" s="205"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="204"/>
       <c r="K8" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="L8" s="156"/>
-      <c r="M8" s="157"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="156"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="208"/>
-      <c r="B9" s="208"/>
-      <c r="C9" s="209"/>
-      <c r="D9" s="223"/>
-      <c r="E9" s="222" t="s">
+      <c r="A9" s="207"/>
+      <c r="B9" s="207"/>
+      <c r="C9" s="208"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="221" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="215" t="s">
+      <c r="F9" s="214" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="217"/>
+      <c r="G9" s="216"/>
       <c r="H9" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="156"/>
-      <c r="J9" s="205"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="204"/>
       <c r="K9" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="L9" s="191"/>
-      <c r="M9" s="225"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="224"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="208"/>
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="219" t="s">
+      <c r="A10" s="207"/>
+      <c r="B10" s="207"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="218" t="s">
         <v>179</v>
       </c>
-      <c r="G10" s="221"/>
+      <c r="G10" s="220"/>
       <c r="H10" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="I10" s="156"/>
-      <c r="J10" s="205"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="204"/>
       <c r="K10" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="L10" s="191"/>
-      <c r="M10" s="225"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="224"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="208"/>
-      <c r="B11" s="208"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="156" t="s">
+      <c r="A11" s="207"/>
+      <c r="B11" s="207"/>
+      <c r="C11" s="208"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="157"/>
-      <c r="G11" s="205"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="204"/>
       <c r="H11" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="I11" s="156"/>
-      <c r="J11" s="205"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="204"/>
       <c r="K11" s="51"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="157"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="156"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="208"/>
-      <c r="B12" s="208"/>
-      <c r="C12" s="209"/>
+      <c r="A12" s="207"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="208"/>
       <c r="D12" s="52"/>
-      <c r="E12" s="219" t="s">
+      <c r="E12" s="218" t="s">
         <v>176</v>
       </c>
-      <c r="F12" s="220"/>
-      <c r="G12" s="221"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="220"/>
       <c r="H12" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="I12" s="156"/>
-      <c r="J12" s="205"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="204"/>
       <c r="K12" s="51"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="157"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="156"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="208"/>
-      <c r="B13" s="208"/>
-      <c r="C13" s="209"/>
+      <c r="A13" s="207"/>
+      <c r="B13" s="207"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="E13" s="215" t="s">
+      <c r="E13" s="214" t="s">
         <v>189</v>
       </c>
-      <c r="F13" s="216" t="s">
+      <c r="F13" s="215" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="217"/>
+      <c r="G13" s="216"/>
       <c r="H13" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="I13" s="156"/>
-      <c r="J13" s="205"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="204"/>
       <c r="K13" s="51"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="157"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="156"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="210"/>
-      <c r="B14" s="210"/>
-      <c r="C14" s="211"/>
+      <c r="A14" s="209"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="210"/>
       <c r="D14" s="54"/>
-      <c r="E14" s="156" t="s">
+      <c r="E14" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="157"/>
-      <c r="G14" s="205"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="204"/>
       <c r="H14" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="I14" s="156"/>
-      <c r="J14" s="205"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="204"/>
       <c r="K14" s="51"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="157"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="156"/>
     </row>
     <row customHeight="1" ht="9" r="15" spans="1:13">
       <c r="A15" s="55"/>
@@ -5658,214 +5671,214 @@
       <c r="M15" s="57"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="218" t="s">
+      <c r="A16" s="217" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="206"/>
-      <c r="C16" s="207"/>
-      <c r="D16" s="212" t="s">
+      <c r="B16" s="205"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="211" t="s">
         <v>171</v>
       </c>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="179" t="s">
+      <c r="E16" s="212"/>
+      <c r="F16" s="212"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="J16" s="179"/>
+      <c r="J16" s="178"/>
       <c r="K16" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="L16" s="180" t="s">
+      <c r="L16" s="179" t="s">
         <v>174</v>
       </c>
-      <c r="M16" s="181"/>
+      <c r="M16" s="180"/>
     </row>
     <row customHeight="1" ht="24" r="17" spans="1:13">
-      <c r="A17" s="208"/>
-      <c r="B17" s="208"/>
-      <c r="C17" s="209"/>
-      <c r="D17" s="154" t="s">
+      <c r="A17" s="207"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="E17" s="154"/>
-      <c r="F17" s="215" t="s">
+      <c r="E17" s="153"/>
+      <c r="F17" s="214" t="s">
         <v>194</v>
       </c>
-      <c r="G17" s="217"/>
+      <c r="G17" s="216"/>
       <c r="H17" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="I17" s="156" t="s">
-        <v>305</v>
-      </c>
-      <c r="J17" s="205"/>
+      <c r="I17" s="155" t="s">
+        <v>307</v>
+      </c>
+      <c r="J17" s="204"/>
       <c r="K17" s="59"/>
-      <c r="L17" s="156" t="s">
-        <v>314</v>
-      </c>
-      <c r="M17" s="157"/>
+      <c r="L17" s="155" t="s">
+        <v>316</v>
+      </c>
+      <c r="M17" s="156"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="208"/>
-      <c r="B18" s="208"/>
-      <c r="C18" s="209"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="215" t="s">
+      <c r="A18" s="207"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="214" t="s">
         <v>196</v>
       </c>
-      <c r="G18" s="217"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="156"/>
-      <c r="J18" s="205"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="204"/>
       <c r="K18" s="59"/>
-      <c r="L18" s="156"/>
-      <c r="M18" s="157"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="156"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="208"/>
-      <c r="B19" s="208"/>
-      <c r="C19" s="209"/>
-      <c r="D19" s="215" t="s">
+      <c r="A19" s="207"/>
+      <c r="B19" s="207"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="214" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="216"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="217"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="216"/>
       <c r="H19" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="I19" s="156" t="s">
-        <v>301</v>
-      </c>
-      <c r="J19" s="205"/>
+      <c r="I19" s="155" t="s">
+        <v>305</v>
+      </c>
+      <c r="J19" s="204"/>
       <c r="K19" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L19" s="156" t="s">
-        <v>301</v>
-      </c>
-      <c r="M19" s="157"/>
+      <c r="L19" s="155" t="s">
+        <v>305</v>
+      </c>
+      <c r="M19" s="156"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="208"/>
-      <c r="B20" s="208"/>
-      <c r="C20" s="209"/>
-      <c r="D20" s="215" t="s">
+      <c r="A20" s="207"/>
+      <c r="B20" s="207"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="214" t="s">
         <v>201</v>
       </c>
-      <c r="E20" s="216"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="217"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="216"/>
       <c r="H20" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="I20" s="156"/>
-      <c r="J20" s="205"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="204"/>
       <c r="K20" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L20" s="156"/>
-      <c r="M20" s="157"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="156"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="208"/>
-      <c r="B21" s="208"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="215" t="s">
+      <c r="A21" s="207"/>
+      <c r="B21" s="207"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="214" t="s">
         <v>203</v>
       </c>
-      <c r="E21" s="216"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="217"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="216"/>
       <c r="H21" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="I21" s="191"/>
-      <c r="J21" s="192"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="191"/>
       <c r="K21" s="51"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="157"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="156"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="208"/>
-      <c r="B22" s="208"/>
-      <c r="C22" s="209"/>
-      <c r="D22" s="215" t="s">
+      <c r="A22" s="207"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="214" t="s">
         <v>205</v>
       </c>
-      <c r="E22" s="216"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="217"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="216"/>
       <c r="H22" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="I22" s="191"/>
-      <c r="J22" s="192"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="191"/>
       <c r="K22" s="51"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="157"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="156"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="208"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="209"/>
-      <c r="D23" s="215" t="s">
+      <c r="A23" s="207"/>
+      <c r="B23" s="207"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="214" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="216"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="217"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="216"/>
       <c r="H23" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="I23" s="191"/>
-      <c r="J23" s="192"/>
+      <c r="I23" s="190"/>
+      <c r="J23" s="191"/>
       <c r="K23" s="51"/>
-      <c r="L23" s="156"/>
-      <c r="M23" s="157"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="156"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="208"/>
-      <c r="B24" s="208"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="215" t="s">
+      <c r="A24" s="207"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="214" t="s">
         <v>209</v>
       </c>
-      <c r="E24" s="216"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="217"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="216"/>
       <c r="H24" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="I24" s="191"/>
-      <c r="J24" s="192"/>
+      <c r="I24" s="190"/>
+      <c r="J24" s="191"/>
       <c r="K24" s="51"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="157"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="156"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="210"/>
-      <c r="B25" s="210"/>
-      <c r="C25" s="211"/>
-      <c r="D25" s="156" t="s">
+      <c r="A25" s="209"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="155" t="s">
         <v>185</v>
       </c>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="205"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="204"/>
       <c r="H25" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="I25" s="156"/>
-      <c r="J25" s="205"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="204"/>
       <c r="K25" s="51"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="157"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="156"/>
     </row>
     <row customHeight="1" ht="11.25" r="26" spans="1:13">
       <c r="A26" s="55"/>
@@ -5883,105 +5896,105 @@
       <c r="M26" s="57"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="B27" s="206"/>
-      <c r="C27" s="207"/>
-      <c r="D27" s="212" t="s">
+      <c r="B27" s="205"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="211" t="s">
         <v>171</v>
       </c>
-      <c r="E27" s="213"/>
-      <c r="F27" s="213"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="214"/>
-      <c r="I27" s="179" t="s">
+      <c r="E27" s="212"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="213"/>
+      <c r="I27" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="J27" s="179"/>
+      <c r="J27" s="178"/>
       <c r="K27" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="L27" s="180" t="s">
+      <c r="L27" s="179" t="s">
         <v>174</v>
       </c>
-      <c r="M27" s="181"/>
+      <c r="M27" s="180"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="208"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="215" t="s">
+      <c r="A28" s="207"/>
+      <c r="B28" s="207"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="214" t="s">
         <v>213</v>
       </c>
-      <c r="E28" s="216"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="217"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="216"/>
       <c r="H28" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="I28" s="156"/>
-      <c r="J28" s="205"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="204"/>
       <c r="K28" s="51"/>
-      <c r="L28" s="156"/>
-      <c r="M28" s="157"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="156"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="208"/>
-      <c r="B29" s="208"/>
-      <c r="C29" s="209"/>
-      <c r="D29" s="215" t="s">
+      <c r="A29" s="207"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="214" t="s">
         <v>215</v>
       </c>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="217"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="216"/>
       <c r="H29" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="I29" s="156"/>
-      <c r="J29" s="205"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="204"/>
       <c r="K29" s="51"/>
-      <c r="L29" s="156"/>
-      <c r="M29" s="157"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="156"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="208"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="209"/>
-      <c r="D30" s="215" t="s">
+      <c r="A30" s="207"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="214" t="s">
         <v>217</v>
       </c>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="217"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="216"/>
       <c r="H30" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="I30" s="156"/>
-      <c r="J30" s="205"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="204"/>
       <c r="K30" s="51"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="157"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="156"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="210"/>
-      <c r="B31" s="210"/>
-      <c r="C31" s="211"/>
-      <c r="D31" s="156" t="s">
+      <c r="A31" s="209"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="155" t="s">
         <v>219</v>
       </c>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="205"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="204"/>
       <c r="H31" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="I31" s="156"/>
-      <c r="J31" s="205"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="204"/>
       <c r="K31" s="51"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="157"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="156"/>
     </row>
     <row customHeight="1" ht="8.25" r="32" spans="1:13">
       <c r="A32" s="55"/>
@@ -5999,143 +6012,143 @@
       <c r="M32" s="55"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="163" t="s">
+      <c r="A33" s="162" t="s">
         <v>221</v>
       </c>
-      <c r="B33" s="206"/>
-      <c r="C33" s="207"/>
-      <c r="D33" s="212" t="s">
+      <c r="B33" s="205"/>
+      <c r="C33" s="206"/>
+      <c r="D33" s="211" t="s">
         <v>171</v>
       </c>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="214"/>
-      <c r="I33" s="179" t="s">
+      <c r="E33" s="212"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="178" t="s">
         <v>172</v>
       </c>
-      <c r="J33" s="179"/>
+      <c r="J33" s="178"/>
       <c r="K33" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="L33" s="180" t="s">
+      <c r="L33" s="179" t="s">
         <v>174</v>
       </c>
-      <c r="M33" s="181"/>
+      <c r="M33" s="180"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="208"/>
-      <c r="B34" s="208"/>
-      <c r="C34" s="209"/>
-      <c r="D34" s="215" t="s">
+      <c r="A34" s="207"/>
+      <c r="B34" s="207"/>
+      <c r="C34" s="208"/>
+      <c r="D34" s="214" t="s">
         <v>222</v>
       </c>
-      <c r="E34" s="216"/>
-      <c r="F34" s="216"/>
-      <c r="G34" s="217"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="216"/>
       <c r="H34" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="I34" s="191"/>
-      <c r="J34" s="192"/>
+      <c r="I34" s="190"/>
+      <c r="J34" s="191"/>
       <c r="K34" s="51"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="157"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="156"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="208"/>
-      <c r="B35" s="208"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="215" t="s">
+      <c r="A35" s="207"/>
+      <c r="B35" s="207"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="214" t="s">
         <v>224</v>
       </c>
-      <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="217"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="216"/>
       <c r="H35" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="I35" s="191"/>
-      <c r="J35" s="192"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="191"/>
       <c r="K35" s="51"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="157"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="156"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="208"/>
-      <c r="B36" s="208"/>
-      <c r="C36" s="209"/>
-      <c r="D36" s="215" t="s">
+      <c r="A36" s="207"/>
+      <c r="B36" s="207"/>
+      <c r="C36" s="208"/>
+      <c r="D36" s="214" t="s">
         <v>226</v>
       </c>
-      <c r="E36" s="216"/>
-      <c r="F36" s="216"/>
-      <c r="G36" s="217"/>
+      <c r="E36" s="215"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="216"/>
       <c r="H36" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="I36" s="191"/>
-      <c r="J36" s="192"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="191"/>
       <c r="K36" s="51"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="157"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="156"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="208"/>
-      <c r="B37" s="208"/>
-      <c r="C37" s="209"/>
-      <c r="D37" s="215" t="s">
+      <c r="A37" s="207"/>
+      <c r="B37" s="207"/>
+      <c r="C37" s="208"/>
+      <c r="D37" s="214" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="216"/>
-      <c r="F37" s="216"/>
-      <c r="G37" s="217"/>
+      <c r="E37" s="215"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="216"/>
       <c r="H37" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="I37" s="191"/>
-      <c r="J37" s="192"/>
+      <c r="I37" s="190"/>
+      <c r="J37" s="191"/>
       <c r="K37" s="51"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="157"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="156"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="208"/>
-      <c r="B38" s="208"/>
-      <c r="C38" s="209"/>
-      <c r="D38" s="215" t="s">
+      <c r="A38" s="207"/>
+      <c r="B38" s="207"/>
+      <c r="C38" s="208"/>
+      <c r="D38" s="214" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
-      <c r="G38" s="217"/>
+      <c r="E38" s="215"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="216"/>
       <c r="H38" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="I38" s="191"/>
-      <c r="J38" s="192"/>
+      <c r="I38" s="190"/>
+      <c r="J38" s="191"/>
       <c r="K38" s="51"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="157"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="156"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="210"/>
-      <c r="B39" s="210"/>
-      <c r="C39" s="211"/>
-      <c r="D39" s="156" t="s">
+      <c r="A39" s="209"/>
+      <c r="B39" s="209"/>
+      <c r="C39" s="210"/>
+      <c r="D39" s="155" t="s">
         <v>219</v>
       </c>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="205"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="204"/>
       <c r="H39" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="I39" s="191"/>
-      <c r="J39" s="192"/>
+      <c r="I39" s="190"/>
+      <c r="J39" s="191"/>
       <c r="K39" s="51"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="157"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="156"/>
     </row>
     <row customHeight="1" ht="8.25" r="40" spans="1:13" thickBot="1">
       <c r="A40" s="60"/>
@@ -6153,384 +6166,384 @@
       <c r="M40" s="57"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="193" t="s">
+      <c r="A41" s="192" t="s">
         <v>233</v>
       </c>
-      <c r="B41" s="194"/>
-      <c r="C41" s="195"/>
-      <c r="D41" s="200" t="s">
+      <c r="B41" s="193"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="199" t="s">
         <v>171</v>
       </c>
-      <c r="E41" s="200"/>
-      <c r="F41" s="200"/>
-      <c r="G41" s="200"/>
-      <c r="H41" s="200"/>
-      <c r="I41" s="201" t="s">
+      <c r="E41" s="199"/>
+      <c r="F41" s="199"/>
+      <c r="G41" s="199"/>
+      <c r="H41" s="199"/>
+      <c r="I41" s="200" t="s">
         <v>172</v>
       </c>
-      <c r="J41" s="202"/>
+      <c r="J41" s="201"/>
       <c r="K41" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="L41" s="181" t="s">
+      <c r="L41" s="180" t="s">
         <v>174</v>
       </c>
-      <c r="M41" s="203"/>
+      <c r="M41" s="202"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="196"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="177" t="s">
+      <c r="A42" s="195"/>
+      <c r="B42" s="195"/>
+      <c r="C42" s="196"/>
+      <c r="D42" s="176" t="s">
         <v>234</v>
       </c>
-      <c r="E42" s="177"/>
-      <c r="F42" s="177"/>
-      <c r="G42" s="177"/>
+      <c r="E42" s="176"/>
+      <c r="F42" s="176"/>
+      <c r="G42" s="176"/>
       <c r="H42" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="I42" s="161"/>
-      <c r="J42" s="171"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="170"/>
       <c r="K42" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="L42" s="161"/>
-      <c r="M42" s="172"/>
+      <c r="L42" s="160"/>
+      <c r="M42" s="171"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="196"/>
-      <c r="B43" s="196"/>
-      <c r="C43" s="197"/>
-      <c r="D43" s="173" t="s">
+      <c r="A43" s="195"/>
+      <c r="B43" s="195"/>
+      <c r="C43" s="196"/>
+      <c r="D43" s="172" t="s">
         <v>237</v>
       </c>
-      <c r="E43" s="174"/>
-      <c r="F43" s="185" t="s">
+      <c r="E43" s="173"/>
+      <c r="F43" s="184" t="s">
         <v>238</v>
       </c>
-      <c r="G43" s="186"/>
+      <c r="G43" s="185"/>
       <c r="H43" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="I43" s="161"/>
-      <c r="J43" s="171"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="170"/>
       <c r="K43" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="L43" s="161"/>
-      <c r="M43" s="172"/>
+      <c r="L43" s="160"/>
+      <c r="M43" s="171"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="196"/>
-      <c r="B44" s="196"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="188"/>
-      <c r="E44" s="204"/>
-      <c r="F44" s="185" t="s">
+      <c r="A44" s="195"/>
+      <c r="B44" s="195"/>
+      <c r="C44" s="196"/>
+      <c r="D44" s="187"/>
+      <c r="E44" s="203"/>
+      <c r="F44" s="184" t="s">
         <v>240</v>
       </c>
-      <c r="G44" s="186"/>
+      <c r="G44" s="185"/>
       <c r="H44" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="I44" s="161"/>
-      <c r="J44" s="171"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="170"/>
       <c r="K44" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="L44" s="161"/>
-      <c r="M44" s="172"/>
+      <c r="L44" s="160"/>
+      <c r="M44" s="171"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="196"/>
-      <c r="B45" s="196"/>
-      <c r="C45" s="197"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="176"/>
-      <c r="F45" s="185" t="s">
+      <c r="A45" s="195"/>
+      <c r="B45" s="195"/>
+      <c r="C45" s="196"/>
+      <c r="D45" s="174"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="184" t="s">
         <v>242</v>
       </c>
-      <c r="G45" s="186"/>
+      <c r="G45" s="185"/>
       <c r="H45" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="I45" s="161"/>
-      <c r="J45" s="171"/>
+      <c r="I45" s="160"/>
+      <c r="J45" s="170"/>
       <c r="K45" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="L45" s="161"/>
-      <c r="M45" s="172"/>
+      <c r="L45" s="160"/>
+      <c r="M45" s="171"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="196"/>
-      <c r="B46" s="196"/>
-      <c r="C46" s="197"/>
-      <c r="D46" s="173" t="s">
+      <c r="A46" s="195"/>
+      <c r="B46" s="195"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="172" t="s">
         <v>245</v>
       </c>
-      <c r="E46" s="174"/>
-      <c r="F46" s="185" t="s">
+      <c r="E46" s="173"/>
+      <c r="F46" s="184" t="s">
         <v>246</v>
       </c>
-      <c r="G46" s="186"/>
+      <c r="G46" s="185"/>
       <c r="H46" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="I46" s="161"/>
-      <c r="J46" s="171"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="170"/>
       <c r="K46" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L46" s="161"/>
-      <c r="M46" s="172"/>
+      <c r="L46" s="160"/>
+      <c r="M46" s="171"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="196"/>
-      <c r="B47" s="196"/>
-      <c r="C47" s="197"/>
-      <c r="D47" s="175" t="s">
+      <c r="A47" s="195"/>
+      <c r="B47" s="195"/>
+      <c r="C47" s="196"/>
+      <c r="D47" s="174" t="s">
         <v>248</v>
       </c>
-      <c r="E47" s="176"/>
-      <c r="F47" s="185" t="s">
+      <c r="E47" s="175"/>
+      <c r="F47" s="184" t="s">
         <v>249</v>
       </c>
-      <c r="G47" s="186"/>
+      <c r="G47" s="185"/>
       <c r="H47" s="62" t="s">
         <v>250</v>
       </c>
-      <c r="I47" s="161"/>
-      <c r="J47" s="171"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="170"/>
       <c r="K47" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L47" s="161"/>
-      <c r="M47" s="172"/>
+      <c r="L47" s="160"/>
+      <c r="M47" s="171"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="196"/>
-      <c r="B48" s="196"/>
-      <c r="C48" s="197"/>
-      <c r="D48" s="173" t="s">
+      <c r="A48" s="195"/>
+      <c r="B48" s="195"/>
+      <c r="C48" s="196"/>
+      <c r="D48" s="172" t="s">
         <v>251</v>
       </c>
-      <c r="E48" s="187"/>
-      <c r="F48" s="182" t="s">
+      <c r="E48" s="186"/>
+      <c r="F48" s="181" t="s">
         <v>252</v>
       </c>
-      <c r="G48" s="184"/>
+      <c r="G48" s="183"/>
       <c r="H48" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="I48" s="161"/>
-      <c r="J48" s="171"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="170"/>
       <c r="K48" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="L48" s="161"/>
-      <c r="M48" s="172"/>
+      <c r="L48" s="160"/>
+      <c r="M48" s="171"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="196"/>
-      <c r="B49" s="196"/>
-      <c r="C49" s="197"/>
-      <c r="D49" s="175"/>
-      <c r="E49" s="190"/>
-      <c r="F49" s="182" t="s">
+      <c r="A49" s="195"/>
+      <c r="B49" s="195"/>
+      <c r="C49" s="196"/>
+      <c r="D49" s="174"/>
+      <c r="E49" s="189"/>
+      <c r="F49" s="181" t="s">
         <v>254</v>
       </c>
-      <c r="G49" s="184"/>
+      <c r="G49" s="183"/>
       <c r="H49" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="I49" s="161"/>
-      <c r="J49" s="171"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="170"/>
       <c r="K49" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="L49" s="161"/>
-      <c r="M49" s="172"/>
+      <c r="L49" s="160"/>
+      <c r="M49" s="171"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="196"/>
-      <c r="B50" s="196"/>
-      <c r="C50" s="197"/>
-      <c r="D50" s="173" t="s">
+      <c r="A50" s="195"/>
+      <c r="B50" s="195"/>
+      <c r="C50" s="196"/>
+      <c r="D50" s="172" t="s">
         <v>257</v>
       </c>
-      <c r="E50" s="187"/>
-      <c r="F50" s="185" t="s">
+      <c r="E50" s="186"/>
+      <c r="F50" s="184" t="s">
         <v>258</v>
       </c>
-      <c r="G50" s="186"/>
+      <c r="G50" s="185"/>
       <c r="H50" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="I50" s="161"/>
-      <c r="J50" s="171"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="170"/>
       <c r="K50" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L50" s="161"/>
-      <c r="M50" s="172"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="171"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="196"/>
-      <c r="B51" s="196"/>
-      <c r="C51" s="197"/>
-      <c r="D51" s="188"/>
-      <c r="E51" s="189"/>
-      <c r="F51" s="185" t="s">
+      <c r="A51" s="195"/>
+      <c r="B51" s="195"/>
+      <c r="C51" s="196"/>
+      <c r="D51" s="187"/>
+      <c r="E51" s="188"/>
+      <c r="F51" s="184" t="s">
         <v>260</v>
       </c>
-      <c r="G51" s="186"/>
+      <c r="G51" s="185"/>
       <c r="H51" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="I51" s="161"/>
-      <c r="J51" s="171"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="170"/>
       <c r="K51" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L51" s="161"/>
-      <c r="M51" s="172"/>
+      <c r="L51" s="160"/>
+      <c r="M51" s="171"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="196"/>
-      <c r="B52" s="196"/>
-      <c r="C52" s="197"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="189"/>
-      <c r="F52" s="185" t="s">
+      <c r="A52" s="195"/>
+      <c r="B52" s="195"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="187"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="184" t="s">
         <v>262</v>
       </c>
-      <c r="G52" s="186"/>
+      <c r="G52" s="185"/>
       <c r="H52" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="I52" s="161"/>
-      <c r="J52" s="171"/>
+      <c r="I52" s="160"/>
+      <c r="J52" s="170"/>
       <c r="K52" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L52" s="161"/>
-      <c r="M52" s="172"/>
+      <c r="L52" s="160"/>
+      <c r="M52" s="171"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="196"/>
-      <c r="B53" s="196"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="175"/>
-      <c r="E53" s="190"/>
-      <c r="F53" s="185" t="s">
+      <c r="A53" s="195"/>
+      <c r="B53" s="195"/>
+      <c r="C53" s="196"/>
+      <c r="D53" s="174"/>
+      <c r="E53" s="189"/>
+      <c r="F53" s="184" t="s">
         <v>264</v>
       </c>
-      <c r="G53" s="186"/>
+      <c r="G53" s="185"/>
       <c r="H53" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="I53" s="161"/>
-      <c r="J53" s="171"/>
+      <c r="I53" s="160"/>
+      <c r="J53" s="170"/>
       <c r="K53" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L53" s="161"/>
-      <c r="M53" s="172"/>
+      <c r="L53" s="160"/>
+      <c r="M53" s="171"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="196"/>
-      <c r="B54" s="196"/>
-      <c r="C54" s="197"/>
-      <c r="D54" s="182" t="s">
+      <c r="A54" s="195"/>
+      <c r="B54" s="195"/>
+      <c r="C54" s="196"/>
+      <c r="D54" s="181" t="s">
         <v>266</v>
       </c>
-      <c r="E54" s="183"/>
+      <c r="E54" s="182"/>
       <c r="F54" s="63"/>
       <c r="G54" s="64"/>
       <c r="H54" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="I54" s="161"/>
-      <c r="J54" s="171"/>
+      <c r="I54" s="160"/>
+      <c r="J54" s="170"/>
       <c r="K54" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="L54" s="161"/>
-      <c r="M54" s="172"/>
+      <c r="L54" s="160"/>
+      <c r="M54" s="171"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="196"/>
-      <c r="B55" s="196"/>
-      <c r="C55" s="197"/>
-      <c r="D55" s="170" t="s">
+      <c r="A55" s="195"/>
+      <c r="B55" s="195"/>
+      <c r="C55" s="196"/>
+      <c r="D55" s="169" t="s">
         <v>268</v>
       </c>
-      <c r="E55" s="170"/>
-      <c r="F55" s="170"/>
-      <c r="G55" s="170"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="169"/>
       <c r="H55" s="62" t="s">
         <v>269</v>
       </c>
-      <c r="I55" s="161"/>
-      <c r="J55" s="171"/>
+      <c r="I55" s="160"/>
+      <c r="J55" s="170"/>
       <c r="K55" s="74" t="s">
         <v>256</v>
       </c>
-      <c r="L55" s="161"/>
-      <c r="M55" s="172"/>
+      <c r="L55" s="160"/>
+      <c r="M55" s="171"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="196"/>
-      <c r="B56" s="196"/>
-      <c r="C56" s="197"/>
-      <c r="D56" s="182" t="s">
+      <c r="A56" s="195"/>
+      <c r="B56" s="195"/>
+      <c r="C56" s="196"/>
+      <c r="D56" s="181" t="s">
         <v>270</v>
       </c>
-      <c r="E56" s="183"/>
-      <c r="F56" s="183"/>
-      <c r="G56" s="184"/>
+      <c r="E56" s="182"/>
+      <c r="F56" s="182"/>
+      <c r="G56" s="183"/>
       <c r="H56" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="I56" s="161"/>
-      <c r="J56" s="171"/>
+      <c r="I56" s="160"/>
+      <c r="J56" s="170"/>
       <c r="K56" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="L56" s="161"/>
-      <c r="M56" s="172"/>
+      <c r="L56" s="160"/>
+      <c r="M56" s="171"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="196"/>
-      <c r="B57" s="196"/>
-      <c r="C57" s="197"/>
-      <c r="D57" s="170" t="s">
+      <c r="A57" s="195"/>
+      <c r="B57" s="195"/>
+      <c r="C57" s="196"/>
+      <c r="D57" s="169" t="s">
         <v>272</v>
       </c>
-      <c r="E57" s="170"/>
-      <c r="F57" s="170"/>
-      <c r="G57" s="170"/>
+      <c r="E57" s="169"/>
+      <c r="F57" s="169"/>
+      <c r="G57" s="169"/>
       <c r="H57" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="I57" s="161"/>
-      <c r="J57" s="171"/>
+      <c r="I57" s="160"/>
+      <c r="J57" s="170"/>
       <c r="K57" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="L57" s="161"/>
-      <c r="M57" s="172"/>
+      <c r="L57" s="160"/>
+      <c r="M57" s="171"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="196"/>
-      <c r="B58" s="196"/>
-      <c r="C58" s="197"/>
-      <c r="D58" s="173" t="s">
+      <c r="A58" s="195"/>
+      <c r="B58" s="195"/>
+      <c r="C58" s="196"/>
+      <c r="D58" s="172" t="s">
         <v>274</v>
       </c>
-      <c r="E58" s="174"/>
+      <c r="E58" s="173"/>
       <c r="F58" s="65" t="s">
         <v>275</v>
       </c>
@@ -6547,11 +6560,11 @@
       <c r="M58" s="69"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="196"/>
-      <c r="B59" s="196"/>
-      <c r="C59" s="197"/>
-      <c r="D59" s="175"/>
-      <c r="E59" s="176"/>
+      <c r="A59" s="195"/>
+      <c r="B59" s="195"/>
+      <c r="C59" s="196"/>
+      <c r="D59" s="174"/>
+      <c r="E59" s="175"/>
       <c r="F59" s="65" t="s">
         <v>277</v>
       </c>
@@ -6568,15 +6581,15 @@
       <c r="M59" s="69"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="198"/>
-      <c r="B60" s="198"/>
-      <c r="C60" s="199"/>
-      <c r="D60" s="177" t="s">
+      <c r="A60" s="197"/>
+      <c r="B60" s="197"/>
+      <c r="C60" s="198"/>
+      <c r="D60" s="176" t="s">
         <v>279</v>
       </c>
-      <c r="E60" s="177"/>
-      <c r="F60" s="177"/>
-      <c r="G60" s="177"/>
+      <c r="E60" s="176"/>
+      <c r="F60" s="176"/>
+      <c r="G60" s="176"/>
       <c r="H60" s="62" t="s">
         <v>280</v>
       </c>
@@ -6602,99 +6615,99 @@
       <c r="M61" s="57"/>
     </row>
     <row customHeight="1" ht="16.5" r="62" spans="1:13">
-      <c r="A62" s="163" t="s">
+      <c r="A62" s="162" t="s">
         <v>281</v>
       </c>
-      <c r="B62" s="163"/>
-      <c r="C62" s="164"/>
-      <c r="D62" s="178" t="s">
+      <c r="B62" s="162"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="177" t="s">
         <v>282</v>
       </c>
-      <c r="E62" s="178"/>
-      <c r="F62" s="178" t="s">
+      <c r="E62" s="177"/>
+      <c r="F62" s="177" t="s">
         <v>283</v>
       </c>
-      <c r="G62" s="178"/>
-      <c r="H62" s="178"/>
-      <c r="I62" s="179" t="s">
+      <c r="G62" s="177"/>
+      <c r="H62" s="177"/>
+      <c r="I62" s="178" t="s">
         <v>284</v>
       </c>
-      <c r="J62" s="179"/>
-      <c r="K62" s="179"/>
-      <c r="L62" s="180" t="s">
+      <c r="J62" s="178"/>
+      <c r="K62" s="178"/>
+      <c r="L62" s="179" t="s">
         <v>285</v>
       </c>
-      <c r="M62" s="181"/>
+      <c r="M62" s="180"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="165"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="166"/>
+      <c r="A63" s="164"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="165"/>
       <c r="D63" s="73" t="s">
         <v>286</v>
       </c>
       <c r="E63" s="59"/>
-      <c r="F63" s="159"/>
-      <c r="G63" s="159"/>
-      <c r="H63" s="159"/>
-      <c r="I63" s="169"/>
-      <c r="J63" s="169"/>
-      <c r="K63" s="169"/>
-      <c r="L63" s="160"/>
-      <c r="M63" s="161"/>
+      <c r="F63" s="158"/>
+      <c r="G63" s="158"/>
+      <c r="H63" s="158"/>
+      <c r="I63" s="168"/>
+      <c r="J63" s="168"/>
+      <c r="K63" s="168"/>
+      <c r="L63" s="159"/>
+      <c r="M63" s="160"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="165"/>
-      <c r="B64" s="165"/>
-      <c r="C64" s="166"/>
+      <c r="A64" s="164"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="165"/>
       <c r="D64" s="73" t="s">
         <v>287</v>
       </c>
       <c r="E64" s="59"/>
-      <c r="F64" s="159"/>
-      <c r="G64" s="159"/>
-      <c r="H64" s="159"/>
-      <c r="I64" s="169"/>
-      <c r="J64" s="169"/>
-      <c r="K64" s="169"/>
-      <c r="L64" s="160"/>
-      <c r="M64" s="161"/>
+      <c r="F64" s="158"/>
+      <c r="G64" s="158"/>
+      <c r="H64" s="158"/>
+      <c r="I64" s="168"/>
+      <c r="J64" s="168"/>
+      <c r="K64" s="168"/>
+      <c r="L64" s="159"/>
+      <c r="M64" s="160"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="165"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="166"/>
+      <c r="A65" s="164"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="165"/>
       <c r="D65" s="73" t="s">
         <v>288</v>
       </c>
       <c r="E65" s="59" t="s">
         <v>289</v>
       </c>
-      <c r="F65" s="159"/>
-      <c r="G65" s="159"/>
-      <c r="H65" s="159"/>
-      <c r="I65" s="159"/>
-      <c r="J65" s="159"/>
-      <c r="K65" s="159"/>
-      <c r="L65" s="160"/>
-      <c r="M65" s="161"/>
+      <c r="F65" s="158"/>
+      <c r="G65" s="158"/>
+      <c r="H65" s="158"/>
+      <c r="I65" s="158"/>
+      <c r="J65" s="158"/>
+      <c r="K65" s="158"/>
+      <c r="L65" s="159"/>
+      <c r="M65" s="160"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="167"/>
-      <c r="B66" s="167"/>
-      <c r="C66" s="168"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="159"/>
-      <c r="F66" s="159"/>
-      <c r="G66" s="159"/>
-      <c r="H66" s="159"/>
-      <c r="I66" s="162" t="s">
+      <c r="A66" s="166"/>
+      <c r="B66" s="166"/>
+      <c r="C66" s="167"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="158"/>
+      <c r="G66" s="158"/>
+      <c r="H66" s="158"/>
+      <c r="I66" s="161" t="s">
         <v>290</v>
       </c>
-      <c r="J66" s="159"/>
-      <c r="K66" s="159"/>
-      <c r="L66" s="160"/>
-      <c r="M66" s="161"/>
+      <c r="J66" s="158"/>
+      <c r="K66" s="158"/>
+      <c r="L66" s="159"/>
+      <c r="M66" s="160"/>
     </row>
     <row customHeight="1" ht="11.25" r="67" spans="1:13">
       <c r="A67" s="57"/>
@@ -6712,44 +6725,44 @@
       <c r="M67" s="57"/>
     </row>
     <row customHeight="1" ht="21" r="68" spans="1:13">
-      <c r="A68" s="153" t="s">
+      <c r="A68" s="152" t="s">
         <v>291</v>
       </c>
-      <c r="B68" s="154"/>
-      <c r="C68" s="154"/>
-      <c r="D68" s="155" t="s">
+      <c r="B68" s="153"/>
+      <c r="C68" s="153"/>
+      <c r="D68" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="E68" s="155"/>
-      <c r="F68" s="156"/>
-      <c r="G68" s="157"/>
-      <c r="H68" s="157"/>
-      <c r="I68" s="157"/>
-      <c r="J68" s="157"/>
-      <c r="K68" s="157"/>
-      <c r="L68" s="157"/>
-      <c r="M68" s="157"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="155"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="156"/>
+      <c r="I68" s="156"/>
+      <c r="J68" s="156"/>
+      <c r="K68" s="156"/>
+      <c r="L68" s="156"/>
+      <c r="M68" s="156"/>
     </row>
     <row customHeight="1" ht="21" r="69" spans="1:13">
-      <c r="A69" s="153"/>
-      <c r="B69" s="154"/>
-      <c r="C69" s="154"/>
-      <c r="D69" s="155" t="s">
+      <c r="A69" s="152"/>
+      <c r="B69" s="153"/>
+      <c r="C69" s="153"/>
+      <c r="D69" s="154" t="s">
         <v>293</v>
       </c>
-      <c r="E69" s="155"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="157"/>
-      <c r="H69" s="157"/>
-      <c r="I69" s="157"/>
-      <c r="J69" s="157"/>
-      <c r="K69" s="157"/>
-      <c r="L69" s="157"/>
-      <c r="M69" s="157"/>
+      <c r="E69" s="154"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="156"/>
+      <c r="H69" s="156"/>
+      <c r="I69" s="156"/>
+      <c r="J69" s="156"/>
+      <c r="K69" s="156"/>
+      <c r="L69" s="156"/>
+      <c r="M69" s="156"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="D70" s="158"/>
-      <c r="E70" s="158"/>
+      <c r="D70" s="157"/>
+      <c r="E70" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="184">
@@ -6953,7 +6966,7 @@
   </sheetPr>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScaleNormal="100">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -6970,40 +6983,40 @@
       </c>
     </row>
     <row ht="45" r="4" spans="1:15">
-      <c r="A4" s="259" t="s">
+      <c r="A4" s="258" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
-      <c r="J4" s="259"/>
-      <c r="K4" s="259"/>
-      <c r="L4" s="259"/>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
+      <c r="B4" s="258"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="258"/>
+      <c r="H4" s="258"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="258"/>
+      <c r="L4" s="258"/>
+      <c r="M4" s="258"/>
+      <c r="N4" s="258"/>
     </row>
     <row ht="24" r="5" spans="1:15">
-      <c r="A5" s="260" t="s">
+      <c r="A5" s="259" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="260"/>
-      <c r="C5" s="260"/>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="260"/>
-      <c r="H5" s="260"/>
-      <c r="I5" s="260"/>
-      <c r="J5" s="260"/>
-      <c r="K5" s="260"/>
-      <c r="L5" s="260"/>
-      <c r="M5" s="260"/>
-      <c r="N5" s="260"/>
+      <c r="B5" s="259"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="259"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="259"/>
+      <c r="L5" s="259"/>
+      <c r="M5" s="259"/>
+      <c r="N5" s="259"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="20"/>
@@ -7027,59 +7040,59 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="261" t="s">
+      <c r="A8" s="260" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="262"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="262"/>
-      <c r="K8" s="262"/>
-      <c r="L8" s="262"/>
-      <c r="M8" s="262"/>
-      <c r="N8" s="262"/>
-      <c r="O8" s="262"/>
+      <c r="B8" s="261"/>
+      <c r="C8" s="261"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="261"/>
+      <c r="H8" s="261"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="261"/>
+      <c r="K8" s="261"/>
+      <c r="L8" s="261"/>
+      <c r="M8" s="261"/>
+      <c r="N8" s="261"/>
+      <c r="O8" s="261"/>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="9" spans="1:15">
-      <c r="A9" s="257" t="s">
+      <c r="A9" s="256" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="257"/>
-      <c r="C9" s="257"/>
-      <c r="D9" s="257"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257"/>
-      <c r="G9" s="257"/>
-      <c r="H9" s="257"/>
-      <c r="I9" s="257"/>
-      <c r="J9" s="257"/>
-      <c r="K9" s="257"/>
-      <c r="L9" s="257"/>
-      <c r="M9" s="257"/>
-      <c r="N9" s="257"/>
-      <c r="O9" s="257"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="256"/>
+      <c r="D9" s="256"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="256"/>
+      <c r="K9" s="256"/>
+      <c r="L9" s="256"/>
+      <c r="M9" s="256"/>
+      <c r="N9" s="256"/>
+      <c r="O9" s="256"/>
     </row>
     <row customHeight="1" ht="20.100000000000001" r="10" spans="1:15">
-      <c r="A10" s="263"/>
-      <c r="B10" s="263"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="263"/>
-      <c r="H10" s="263"/>
-      <c r="I10" s="263"/>
-      <c r="J10" s="263"/>
-      <c r="K10" s="263"/>
-      <c r="L10" s="263"/>
-      <c r="M10" s="263"/>
-      <c r="N10" s="263"/>
-      <c r="O10" s="263"/>
+      <c r="A10" s="262"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="262"/>
+      <c r="H10" s="262"/>
+      <c r="I10" s="262"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="262"/>
+      <c r="M10" s="262"/>
+      <c r="N10" s="262"/>
+      <c r="O10" s="262"/>
     </row>
     <row customHeight="1" ht="30" r="11" spans="1:15">
       <c r="A11" s="21" t="s">
@@ -7145,15 +7158,15 @@
       <c r="O13" s="26"/>
     </row>
     <row ht="19.5" r="14" spans="1:15">
-      <c r="A14" s="264" t="s">
+      <c r="A14" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="264"/>
-      <c r="C14" s="264"/>
-      <c r="D14" s="264"/>
-      <c r="E14" s="264"/>
-      <c r="F14" s="264"/>
-      <c r="G14" s="265"/>
+      <c r="B14" s="263"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="263"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="263"/>
+      <c r="G14" s="264"/>
       <c r="H14" s="29" t="s">
         <v>138</v>
       </c>
@@ -7183,95 +7196,95 @@
       <c r="O15" s="30"/>
     </row>
     <row customFormat="1" customHeight="1" ht="20.100000000000001" r="16" s="31" spans="1:15">
-      <c r="A16" s="257" t="s">
+      <c r="A16" s="256" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="257"/>
-      <c r="C16" s="257"/>
-      <c r="D16" s="257"/>
-      <c r="E16" s="257"/>
-      <c r="F16" s="257"/>
-      <c r="G16" s="257"/>
-      <c r="H16" s="257"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="257"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="257"/>
-      <c r="M16" s="257"/>
-      <c r="N16" s="257"/>
-      <c r="O16" s="257"/>
+      <c r="B16" s="256"/>
+      <c r="C16" s="256"/>
+      <c r="D16" s="256"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="256"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
     </row>
     <row customFormat="1" customHeight="1" ht="20.100000000000001" r="17" s="32" spans="1:15">
-      <c r="A17" s="258"/>
-      <c r="B17" s="258"/>
-      <c r="C17" s="258"/>
-      <c r="D17" s="258"/>
-      <c r="E17" s="258"/>
-      <c r="F17" s="258"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="258"/>
-      <c r="I17" s="258"/>
-      <c r="J17" s="258"/>
-      <c r="K17" s="258"/>
-      <c r="L17" s="258"/>
-      <c r="M17" s="258"/>
-      <c r="N17" s="258"/>
-      <c r="O17" s="258"/>
+      <c r="A17" s="257"/>
+      <c r="B17" s="257"/>
+      <c r="C17" s="257"/>
+      <c r="D17" s="257"/>
+      <c r="E17" s="257"/>
+      <c r="F17" s="257"/>
+      <c r="G17" s="257"/>
+      <c r="H17" s="257"/>
+      <c r="I17" s="257"/>
+      <c r="J17" s="257"/>
+      <c r="K17" s="257"/>
+      <c r="L17" s="257"/>
+      <c r="M17" s="257"/>
+      <c r="N17" s="257"/>
+      <c r="O17" s="257"/>
     </row>
     <row customHeight="1" ht="19.5" r="18" spans="1:15">
-      <c r="A18" s="244" t="s">
+      <c r="A18" s="243" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="245"/>
-      <c r="C18" s="245"/>
-      <c r="D18" s="247" t="s">
+      <c r="B18" s="244"/>
+      <c r="C18" s="244"/>
+      <c r="D18" s="246" t="s">
         <v>141</v>
       </c>
-      <c r="E18" s="249" t="s">
+      <c r="E18" s="248" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="231" t="s">
+      <c r="F18" s="230" t="s">
         <v>143</v>
       </c>
-      <c r="G18" s="231"/>
-      <c r="H18" s="231"/>
-      <c r="I18" s="231"/>
-      <c r="J18" s="231"/>
-      <c r="K18" s="250" t="s">
+      <c r="G18" s="230"/>
+      <c r="H18" s="230"/>
+      <c r="I18" s="230"/>
+      <c r="J18" s="230"/>
+      <c r="K18" s="249" t="s">
         <v>144</v>
       </c>
-      <c r="L18" s="251"/>
-      <c r="M18" s="251"/>
-      <c r="N18" s="251"/>
-      <c r="O18" s="252"/>
+      <c r="L18" s="250"/>
+      <c r="M18" s="250"/>
+      <c r="N18" s="250"/>
+      <c r="O18" s="251"/>
     </row>
     <row customHeight="1" ht="40.5" r="19" spans="1:15">
-      <c r="A19" s="246"/>
-      <c r="B19" s="246"/>
-      <c r="C19" s="246"/>
-      <c r="D19" s="248"/>
-      <c r="E19" s="229"/>
-      <c r="F19" s="253" t="s">
+      <c r="A19" s="245"/>
+      <c r="B19" s="245"/>
+      <c r="C19" s="245"/>
+      <c r="D19" s="247"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="252" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="254" t="s">
+      <c r="G19" s="252"/>
+      <c r="H19" s="252"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="252"/>
+      <c r="K19" s="253" t="s">
         <v>146</v>
       </c>
-      <c r="L19" s="255"/>
-      <c r="M19" s="255"/>
-      <c r="N19" s="255"/>
-      <c r="O19" s="256"/>
+      <c r="L19" s="254"/>
+      <c r="M19" s="254"/>
+      <c r="N19" s="254"/>
+      <c r="O19" s="255"/>
     </row>
     <row customHeight="1" ht="47.1" r="20" spans="1:15">
-      <c r="A20" s="246" t="s">
+      <c r="A20" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="246"/>
-      <c r="C20" s="246"/>
+      <c r="B20" s="245"/>
+      <c r="C20" s="245"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
@@ -7286,13 +7299,13 @@
       <c r="O20" s="36"/>
     </row>
     <row customHeight="1" ht="47.1" r="21" spans="1:15">
-      <c r="A21" s="241" t="s">
+      <c r="A21" s="240" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="242" t="s">
+      <c r="B21" s="241" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="242"/>
+      <c r="C21" s="241"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
       <c r="F21" s="34"/>
@@ -7307,11 +7320,11 @@
       <c r="O21" s="36"/>
     </row>
     <row customHeight="1" ht="47.1" r="22" spans="1:15">
-      <c r="A22" s="241"/>
-      <c r="B22" s="242" t="s">
+      <c r="A22" s="240"/>
+      <c r="B22" s="241" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="242"/>
+      <c r="C22" s="241"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34"/>
       <c r="F22" s="34"/>
@@ -7326,11 +7339,11 @@
       <c r="O22" s="36"/>
     </row>
     <row customHeight="1" ht="47.1" r="23" spans="1:15">
-      <c r="A23" s="241"/>
-      <c r="B23" s="243" t="s">
+      <c r="A23" s="240"/>
+      <c r="B23" s="242" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="243"/>
+      <c r="C23" s="242"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
@@ -7345,13 +7358,13 @@
       <c r="O23" s="36"/>
     </row>
     <row customHeight="1" ht="47.1" r="24" spans="1:15">
-      <c r="A24" s="241" t="s">
+      <c r="A24" s="240" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="242" t="s">
+      <c r="B24" s="241" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="242"/>
+      <c r="C24" s="241"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
@@ -7366,11 +7379,11 @@
       <c r="O24" s="36"/>
     </row>
     <row customHeight="1" ht="47.1" r="25" spans="1:15">
-      <c r="A25" s="241"/>
-      <c r="B25" s="242" t="s">
+      <c r="A25" s="240"/>
+      <c r="B25" s="241" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="242"/>
+      <c r="C25" s="241"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
       <c r="F25" s="34"/>
@@ -7385,11 +7398,11 @@
       <c r="O25" s="36"/>
     </row>
     <row customHeight="1" ht="47.1" r="26" spans="1:15">
-      <c r="A26" s="241"/>
-      <c r="B26" s="243" t="s">
+      <c r="A26" s="240"/>
+      <c r="B26" s="242" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="243"/>
+      <c r="C26" s="242"/>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
@@ -7476,56 +7489,56 @@
       <c r="N30" s="32"/>
     </row>
     <row customHeight="1" ht="41.25" r="31" spans="1:15">
-      <c r="A31" s="227" t="s">
+      <c r="A31" s="226" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="229" t="s">
+      <c r="B31" s="228" t="s">
         <v>157</v>
       </c>
-      <c r="C31" s="229" t="s">
+      <c r="C31" s="228" t="s">
         <v>158</v>
       </c>
-      <c r="D31" s="229" t="s">
+      <c r="D31" s="228" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="231" t="s">
+      <c r="E31" s="230" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="232"/>
-      <c r="G31" s="232"/>
-      <c r="H31" s="232"/>
-      <c r="I31" s="232"/>
-      <c r="J31" s="233" t="s">
+      <c r="F31" s="231"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="232" t="s">
         <v>294</v>
       </c>
-      <c r="K31" s="231"/>
-      <c r="L31" s="231"/>
-      <c r="M31" s="231"/>
-      <c r="N31" s="231"/>
-      <c r="O31" s="234" t="s">
+      <c r="K31" s="230"/>
+      <c r="L31" s="230"/>
+      <c r="M31" s="230"/>
+      <c r="N31" s="230"/>
+      <c r="O31" s="233" t="s">
         <v>161</v>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="32" spans="1:15">
-      <c r="A32" s="228"/>
-      <c r="B32" s="230"/>
-      <c r="C32" s="230"/>
-      <c r="D32" s="230"/>
-      <c r="E32" s="236" t="s">
+      <c r="A32" s="227"/>
+      <c r="B32" s="229"/>
+      <c r="C32" s="229"/>
+      <c r="D32" s="229"/>
+      <c r="E32" s="235" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="236"/>
-      <c r="G32" s="236"/>
-      <c r="H32" s="236"/>
-      <c r="I32" s="236"/>
-      <c r="J32" s="236" t="s">
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
+      <c r="J32" s="235" t="s">
         <v>163</v>
       </c>
-      <c r="K32" s="236"/>
-      <c r="L32" s="236"/>
-      <c r="M32" s="236"/>
-      <c r="N32" s="236"/>
-      <c r="O32" s="235"/>
+      <c r="K32" s="235"/>
+      <c r="L32" s="235"/>
+      <c r="M32" s="235"/>
+      <c r="N32" s="235"/>
+      <c r="O32" s="234"/>
     </row>
     <row customHeight="1" ht="47.1" r="33" spans="1:15">
       <c r="A33" s="42">
@@ -7623,16 +7636,16 @@
       <c r="O37" s="47"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="237" t="s">
+      <c r="A39" s="236" t="s">
         <v>295</v>
       </c>
-      <c r="B39" s="239" t="s">
+      <c r="B39" s="238" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="238"/>
-      <c r="B40" s="240"/>
+      <c r="A40" s="237"/>
+      <c r="B40" s="239"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="32"/>
@@ -7652,16 +7665,16 @@
       <c r="O41" s="32"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="H43" s="226" t="s">
+      <c r="H43" s="225" t="s">
         <v>165</v>
       </c>
-      <c r="I43" s="226"/>
-      <c r="J43" s="226"/>
-      <c r="K43" s="226"/>
-      <c r="L43" s="226"/>
-      <c r="M43" s="226"/>
-      <c r="N43" s="226"/>
-      <c r="O43" s="226"/>
+      <c r="I43" s="225"/>
+      <c r="J43" s="225"/>
+      <c r="K43" s="225"/>
+      <c r="L43" s="225"/>
+      <c r="M43" s="225"/>
+      <c r="N43" s="225"/>
+      <c r="O43" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="34">

--- a/savingTaxProject/web/board_uploadFiles/ff.xlsx
+++ b/savingTaxProject/web/board_uploadFiles/ff.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="333">
   <si>
     <t>■ 부가가치세법 시행규칙 [별지 제21호 서식] &lt;개정 2015.3.6&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1327,10 +1327,49 @@
     <t>2017년</t>
   </si>
   <si>
+    <t>제 2 분기</t>
+  </si>
+  <si>
+    <t>7 월 01 일 ~ 12 월 31 일</t>
+  </si>
+  <si>
     <t>일반고깃집</t>
   </si>
   <si>
-    <t>서울시 강남구 역삼동 135-34</t>
+    <t>이일반</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>99/05/05</t>
+  </si>
+  <si>
+    <t>010-7777-7777</t>
+  </si>
+  <si>
+    <t>01342/서울시 강남구 역삼동/서울시 강남구 역삼동 135-34</t>
+  </si>
+  <si>
+    <t>jsmi2@jsmi.com</t>
   </si>
   <si>
     <t>2200000</t>
@@ -1373,9 +1412,6 @@
   </si>
   <si>
     <t>보건</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>123-81-12345</t>
@@ -3514,17 +3550,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C8" s="100"/>
       <c r="D8" s="100" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
       <c r="G8" s="100"/>
       <c r="H8" s="83" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="I8" s="83"/>
       <c r="J8" s="83"/>
@@ -3540,10 +3576,10 @@
       <c r="B9" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="141" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" s="142"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142" t="s">
+        <v>305</v>
+      </c>
       <c r="E9" s="142"/>
       <c r="F9" s="142"/>
       <c r="G9" s="142"/>
@@ -3554,30 +3590,58 @@
         <v>8</v>
       </c>
       <c r="L9" s="141"/>
-      <c r="M9" s="142"/>
+      <c r="M9" s="142" t="s">
+        <v>306</v>
+      </c>
       <c r="N9" s="142"/>
       <c r="O9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="9"/>
+      <c r="P9" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row customHeight="1" ht="13.5" r="10" spans="1:27">
       <c r="A10" s="81"/>
       <c r="B10" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="125"/>
+      <c r="C10" s="125" t="s">
+        <v>314</v>
+      </c>
       <c r="D10" s="143"/>
       <c r="E10" s="144"/>
       <c r="F10" s="144"/>
@@ -3632,7 +3696,9 @@
       <c r="R11" s="99"/>
       <c r="S11" s="99"/>
       <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
+      <c r="U11" s="99" t="s">
+        <v>315</v>
+      </c>
       <c r="V11" s="99"/>
       <c r="W11" s="99"/>
       <c r="X11" s="99"/>
@@ -3647,7 +3713,7 @@
       </c>
       <c r="C12" s="131"/>
       <c r="D12" s="132" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="E12" s="133"/>
       <c r="F12" s="133"/>
@@ -3664,7 +3730,9 @@
       </c>
       <c r="P12" s="135"/>
       <c r="Q12" s="136"/>
-      <c r="R12" s="137"/>
+      <c r="R12" s="137" t="s">
+        <v>317</v>
+      </c>
       <c r="S12" s="138"/>
       <c r="T12" s="138"/>
       <c r="U12" s="138"/>
@@ -3766,7 +3834,7 @@
         <v>41</v>
       </c>
       <c r="M16" s="99" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="N16" s="99"/>
       <c r="O16" s="99"/>
@@ -3776,7 +3844,7 @@
       <c r="Q16" s="99"/>
       <c r="R16" s="99"/>
       <c r="S16" s="99" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="T16" s="99"/>
       <c r="U16" s="99"/>
@@ -3840,7 +3908,7 @@
         <v>43</v>
       </c>
       <c r="M18" s="99" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="N18" s="99"/>
       <c r="O18" s="99"/>
@@ -3850,7 +3918,7 @@
       <c r="Q18" s="99"/>
       <c r="R18" s="99"/>
       <c r="S18" s="99" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="T18" s="99"/>
       <c r="U18" s="99"/>
@@ -3879,7 +3947,7 @@
         <v>44</v>
       </c>
       <c r="M19" s="99" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="N19" s="99"/>
       <c r="O19" s="99"/>
@@ -3887,7 +3955,7 @@
       <c r="Q19" s="99"/>
       <c r="R19" s="99"/>
       <c r="S19" s="99" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="T19" s="99"/>
       <c r="U19" s="99"/>
@@ -4054,7 +4122,7 @@
         <v>49</v>
       </c>
       <c r="M24" s="99" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="N24" s="99"/>
       <c r="O24" s="99"/>
@@ -4064,7 +4132,7 @@
       <c r="Q24" s="99"/>
       <c r="R24" s="99"/>
       <c r="S24" s="99" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="T24" s="99"/>
       <c r="U24" s="99"/>
@@ -4097,7 +4165,7 @@
         <v>50</v>
       </c>
       <c r="M25" s="126" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="N25" s="126"/>
       <c r="O25" s="126"/>
@@ -4105,7 +4173,7 @@
       <c r="Q25" s="99"/>
       <c r="R25" s="99"/>
       <c r="S25" s="126" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="T25" s="126"/>
       <c r="U25" s="126"/>
@@ -4233,7 +4301,7 @@
         <v>54</v>
       </c>
       <c r="M29" s="99" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="N29" s="99"/>
       <c r="O29" s="99"/>
@@ -4241,7 +4309,7 @@
       <c r="Q29" s="99"/>
       <c r="R29" s="99"/>
       <c r="S29" s="99" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="T29" s="99"/>
       <c r="U29" s="99"/>
@@ -4454,7 +4522,7 @@
         <v>87</v>
       </c>
       <c r="M35" s="99" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="N35" s="99"/>
       <c r="O35" s="99"/>
@@ -4462,7 +4530,7 @@
       <c r="Q35" s="99"/>
       <c r="R35" s="99"/>
       <c r="S35" s="99" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="T35" s="99"/>
       <c r="U35" s="99"/>
@@ -4491,7 +4559,7 @@
         <v>88</v>
       </c>
       <c r="M36" s="99" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="N36" s="99"/>
       <c r="O36" s="99"/>
@@ -4501,7 +4569,7 @@
       <c r="Q36" s="99"/>
       <c r="R36" s="99"/>
       <c r="S36" s="99" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="T36" s="99"/>
       <c r="U36" s="99"/>
@@ -4745,7 +4813,7 @@
       <c r="Q43" s="99"/>
       <c r="R43" s="99"/>
       <c r="S43" s="99" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="T43" s="99"/>
       <c r="U43" s="99"/>
@@ -4936,10 +5004,10 @@
     </row>
     <row customHeight="1" ht="18" r="52" spans="1:27" thickBot="1">
       <c r="A52" s="10" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C52" s="80"/>
       <c r="D52" s="81"/>
@@ -5432,7 +5500,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
@@ -5711,12 +5779,12 @@
         <v>195</v>
       </c>
       <c r="I17" s="155" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="J17" s="204"/>
       <c r="K17" s="59"/>
       <c r="L17" s="155" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="M17" s="156"/>
     </row>
@@ -5753,14 +5821,14 @@
         <v>199</v>
       </c>
       <c r="I19" s="155" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="J19" s="204"/>
       <c r="K19" s="59" t="s">
         <v>200</v>
       </c>
       <c r="L19" s="155" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="M19" s="156"/>
     </row>
